--- a/docs/source/_static/structure/DBDAT_TEMPLATE.xlsx
+++ b/docs/source/_static/structure/DBDAT_TEMPLATE.xlsx
@@ -75368,31 +75368,31 @@
       <formula1>'ACC.ASST_LN_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>"True,False"</formula1>
+      <formula1>'ACC.ASST_LN_'!$B$1:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H5 J4:J5 L4:L5 N4:N5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.ASST_LN_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.ASST_LN_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="I4:I5 K4:K5 M4:M5 O4:O5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.ASST_LN_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.ASST_LN_'!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H5 J4:J5 L4:L5 N4:N5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.ASST_LN_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.ASST_LN_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="I4:I5 K4:K5 M4:M5 O4:O5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.ASST_LN_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.ASST_LN_'!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H5 J4:J5 L4:L5 N4:N5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.ASST_LN_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.ASST_LN_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="I4:I5 K4:K5 M4:M5 O4:O5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.ASST_LN_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.ASST_LN_'!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H5 J4:J5 L4:L5 N4:N5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.ASST_LN_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.ASST_LN_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="I4:I5 K4:K5 M4:M5 O4:O5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.ASST_LN_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.ASST_LN_'!$D$1:$D$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -75405,7 +75405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75426,6 +75426,11 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
@@ -75438,10 +75443,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -75455,6 +75465,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
@@ -75465,7 +75480,7 @@
           <t>D</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -75477,7 +75492,7 @@
           <t>H</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -75945,37 +75960,37 @@
       <formula1>'ACC.SHR_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="I4:I5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>"True,False"</formula1>
+      <formula1>'ACC.SHR_'!$B$1:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="J4:J5 L4:L5 N4:N5 P4:P5 R4:R5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.SHR_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="K4:K5 M4:M5 O4:O5 Q4:Q5 S4:S5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.SHR_'!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="J4:J5 L4:L5 N4:N5 P4:P5 R4:R5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.SHR_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="K4:K5 M4:M5 O4:O5 Q4:Q5 S4:S5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.SHR_'!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="J4:J5 L4:L5 N4:N5 P4:P5 R4:R5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.SHR_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="K4:K5 M4:M5 O4:O5 Q4:Q5 S4:S5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.SHR_'!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="J4:J5 L4:L5 N4:N5 P4:P5 R4:R5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.SHR_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="K4:K5 M4:M5 O4:O5 Q4:Q5 S4:S5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.SHR_'!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="J4:J5 L4:L5 N4:N5 P4:P5 R4:R5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.SHR_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="K4:K5 M4:M5 O4:O5 Q4:Q5 S4:S5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.SHR_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.SHR_'!$D$1:$D$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -75988,7 +76003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76009,6 +76024,11 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
@@ -76021,10 +76041,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -76038,6 +76063,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
@@ -76048,7 +76078,7 @@
           <t>D</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -76060,7 +76090,7 @@
           <t>H</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -80929,31 +80959,31 @@
       <formula1>'ACC.LBLTY_LN_'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation sqref="G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>"True,False"</formula1>
+      <formula1>'ACC.LBLTY_LN_'!$B$1:$B$3</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H5 J4:J5 L4:L5 N4:N5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.LBLTY_LN_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.LBLTY_LN_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="I4:I5 K4:K5 M4:M5 O4:O5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.LBLTY_LN_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.LBLTY_LN_'!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H5 J4:J5 L4:L5 N4:N5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.LBLTY_LN_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.LBLTY_LN_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="I4:I5 K4:K5 M4:M5 O4:O5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.LBLTY_LN_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.LBLTY_LN_'!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H5 J4:J5 L4:L5 N4:N5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.LBLTY_LN_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.LBLTY_LN_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="I4:I5 K4:K5 M4:M5 O4:O5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.LBLTY_LN_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.LBLTY_LN_'!$D$1:$D$2</formula1>
     </dataValidation>
     <dataValidation sqref="H4:H5 J4:J5 L4:L5 N4:N5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.LBLTY_LN_'!$B$1:$B$5</formula1>
+      <formula1>'ACC.LBLTY_LN_'!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="I4:I5 K4:K5 M4:M5 O4:O5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>'ACC.LBLTY_LN_'!$C$1:$C$2</formula1>
+      <formula1>'ACC.LBLTY_LN_'!$D$1:$D$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -80966,7 +80996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80987,6 +81017,11 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
@@ -80999,10 +81034,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -81016,6 +81056,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>E</t>
         </is>
       </c>
@@ -81026,7 +81071,7 @@
           <t>D</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -81038,7 +81083,7 @@
           <t>H</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>O</t>
         </is>

--- a/docs/source/_static/structure/DBDAT_TEMPLATE.xlsx
+++ b/docs/source/_static/structure/DBDAT_TEMPLATE.xlsx
@@ -110,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DDTHH:MM:SS"/>
     <numFmt numFmtId="165" formatCode="#,##.00"/>
   </numFmts>
   <fonts count="11">

--- a/docs/source/_static/structure/DBDAT_TEMPLATE.xlsx
+++ b/docs/source/_static/structure/DBDAT_TEMPLATE.xlsx
@@ -9958,7 +9958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -9975,10 +9975,25 @@
     <col width="16.2" customWidth="1" min="4" max="4"/>
     <col width="16.2" customWidth="1" min="5" max="5"/>
     <col width="13.5" customWidth="1" min="6" max="6"/>
-    <col width="25.65" customWidth="1" min="7" max="7"/>
-    <col width="22.95" customWidth="1" min="8" max="8"/>
-    <col width="22.95" customWidth="1" min="9" max="9"/>
-    <col width="20.25" customWidth="1" min="10" max="10"/>
+    <col width="14.85" customWidth="1" min="7" max="7"/>
+    <col width="14.85" customWidth="1" min="8" max="8"/>
+    <col width="14.85" customWidth="1" min="9" max="9"/>
+    <col width="14.85" customWidth="1" min="10" max="10"/>
+    <col width="14.85" customWidth="1" min="11" max="11"/>
+    <col width="25.65" customWidth="1" min="12" max="12"/>
+    <col width="22.95" customWidth="1" min="13" max="13"/>
+    <col width="24.3" customWidth="1" min="14" max="14"/>
+    <col width="21.6" customWidth="1" min="15" max="15"/>
+    <col width="24.3" customWidth="1" min="16" max="16"/>
+    <col width="21.6" customWidth="1" min="17" max="17"/>
+    <col width="22.95" customWidth="1" min="18" max="18"/>
+    <col width="20.25" customWidth="1" min="19" max="19"/>
+    <col width="24.3" customWidth="1" min="20" max="20"/>
+    <col width="21.6" customWidth="1" min="21" max="21"/>
+    <col width="24.3" customWidth="1" min="22" max="22"/>
+    <col width="21.6" customWidth="1" min="23" max="23"/>
+    <col width="24.3" customWidth="1" min="24" max="24"/>
+    <col width="21.6" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
@@ -9994,7 +10009,22 @@
       <c r="G1" s="8" t="n"/>
       <c r="H1" s="8" t="n"/>
       <c r="I1" s="8" t="n"/>
-      <c r="J1" s="9" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="8" t="n"/>
+      <c r="O1" s="8" t="n"/>
+      <c r="P1" s="8" t="n"/>
+      <c r="Q1" s="8" t="n"/>
+      <c r="R1" s="8" t="n"/>
+      <c r="S1" s="8" t="n"/>
+      <c r="T1" s="8" t="n"/>
+      <c r="U1" s="8" t="n"/>
+      <c r="V1" s="8" t="n"/>
+      <c r="W1" s="8" t="n"/>
+      <c r="X1" s="8" t="n"/>
+      <c r="Y1" s="9" t="n"/>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="10" t="inlineStr">
@@ -10010,15 +10040,30 @@
           <t>MEASURES</t>
         </is>
       </c>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
-        <is>
-          <t>ATTRIBUTES</t>
-        </is>
-      </c>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="8" t="n"/>
       <c r="H2" s="8" t="n"/>
       <c r="I2" s="8" t="n"/>
-      <c r="J2" s="9" t="n"/>
+      <c r="J2" s="8" t="n"/>
+      <c r="K2" s="9" t="n"/>
+      <c r="L2" s="12" t="inlineStr">
+        <is>
+          <t>ATTRIBUTES</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="n"/>
+      <c r="N2" s="8" t="n"/>
+      <c r="O2" s="8" t="n"/>
+      <c r="P2" s="8" t="n"/>
+      <c r="Q2" s="8" t="n"/>
+      <c r="R2" s="8" t="n"/>
+      <c r="S2" s="8" t="n"/>
+      <c r="T2" s="8" t="n"/>
+      <c r="U2" s="8" t="n"/>
+      <c r="V2" s="8" t="n"/>
+      <c r="W2" s="8" t="n"/>
+      <c r="X2" s="8" t="n"/>
+      <c r="Y2" s="9" t="n"/>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="10" t="inlineStr">
@@ -10051,24 +10096,99 @@
           <t>IFDAT_RL</t>
         </is>
       </c>
-      <c r="G3" s="13" t="inlineStr">
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>BSIDAT_RL</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>MIRDAT_RL</t>
+        </is>
+      </c>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t>AUXDAT_RL</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>INSDAT_RL</t>
+        </is>
+      </c>
+      <c r="K3" s="7" t="inlineStr">
+        <is>
+          <t>PENDAT_RL</t>
+        </is>
+      </c>
+      <c r="L3" s="13" t="inlineStr">
         <is>
           <t>ASSCTD_WTH.STATUS</t>
         </is>
       </c>
-      <c r="H3" s="13" t="inlineStr">
+      <c r="M3" s="13" t="inlineStr">
         <is>
           <t>ASSCTD_WTH.CONF</t>
         </is>
       </c>
-      <c r="I3" s="13" t="inlineStr">
+      <c r="N3" s="13" t="inlineStr">
+        <is>
+          <t>AUXDAT_RL.STATUS</t>
+        </is>
+      </c>
+      <c r="O3" s="13" t="inlineStr">
+        <is>
+          <t>AUXDAT_RL.CONF</t>
+        </is>
+      </c>
+      <c r="P3" s="13" t="inlineStr">
+        <is>
+          <t>BSIDAT_RL.STATUS</t>
+        </is>
+      </c>
+      <c r="Q3" s="13" t="inlineStr">
+        <is>
+          <t>BSIDAT_RL.CONF</t>
+        </is>
+      </c>
+      <c r="R3" s="13" t="inlineStr">
         <is>
           <t>IFDAT_RL.STATUS</t>
         </is>
       </c>
-      <c r="J3" s="13" t="inlineStr">
+      <c r="S3" s="13" t="inlineStr">
         <is>
           <t>IFDAT_RL.CONF</t>
+        </is>
+      </c>
+      <c r="T3" s="13" t="inlineStr">
+        <is>
+          <t>INSDAT_RL.STATUS</t>
+        </is>
+      </c>
+      <c r="U3" s="13" t="inlineStr">
+        <is>
+          <t>INSDAT_RL.CONF</t>
+        </is>
+      </c>
+      <c r="V3" s="13" t="inlineStr">
+        <is>
+          <t>MIRDAT_RL.STATUS</t>
+        </is>
+      </c>
+      <c r="W3" s="13" t="inlineStr">
+        <is>
+          <t>MIRDAT_RL.CONF</t>
+        </is>
+      </c>
+      <c r="X3" s="13" t="inlineStr">
+        <is>
+          <t>PENDAT_RL.STATUS</t>
+        </is>
+      </c>
+      <c r="Y3" s="13" t="inlineStr">
+        <is>
+          <t>PENDAT_RL.CONF</t>
         </is>
       </c>
     </row>
@@ -10079,10 +10199,25 @@
       <c r="D4" s="18" t="n"/>
       <c r="E4" s="16" t="n"/>
       <c r="F4" s="16" t="n"/>
-      <c r="G4" s="17" t="n"/>
-      <c r="H4" s="17" t="n"/>
-      <c r="I4" s="17" t="n"/>
-      <c r="J4" s="17" t="n"/>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="16" t="n"/>
+      <c r="J4" s="16" t="n"/>
+      <c r="K4" s="16" t="n"/>
+      <c r="L4" s="17" t="n"/>
+      <c r="M4" s="17" t="n"/>
+      <c r="N4" s="17" t="n"/>
+      <c r="O4" s="17" t="n"/>
+      <c r="P4" s="17" t="n"/>
+      <c r="Q4" s="17" t="n"/>
+      <c r="R4" s="17" t="n"/>
+      <c r="S4" s="17" t="n"/>
+      <c r="T4" s="17" t="n"/>
+      <c r="U4" s="17" t="n"/>
+      <c r="V4" s="17" t="n"/>
+      <c r="W4" s="17" t="n"/>
+      <c r="X4" s="17" t="n"/>
+      <c r="Y4" s="17" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="14" t="n"/>
@@ -10091,36 +10226,96 @@
       <c r="D5" s="18" t="n"/>
       <c r="E5" s="16" t="n"/>
       <c r="F5" s="16" t="n"/>
-      <c r="G5" s="17" t="n"/>
-      <c r="H5" s="17" t="n"/>
-      <c r="I5" s="17" t="n"/>
-      <c r="J5" s="17" t="n"/>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="16" t="n"/>
+      <c r="J5" s="16" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="17" t="n"/>
+      <c r="M5" s="17" t="n"/>
+      <c r="N5" s="17" t="n"/>
+      <c r="O5" s="17" t="n"/>
+      <c r="P5" s="17" t="n"/>
+      <c r="Q5" s="17" t="n"/>
+      <c r="R5" s="17" t="n"/>
+      <c r="S5" s="17" t="n"/>
+      <c r="T5" s="17" t="n"/>
+      <c r="U5" s="17" t="n"/>
+      <c r="V5" s="17" t="n"/>
+      <c r="W5" s="17" t="n"/>
+      <c r="X5" s="17" t="n"/>
+      <c r="Y5" s="17" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="L2:Y2"/>
+    <mergeCell ref="E1:Y1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:K2"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation sqref="E4:E5 F4:F5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+  <dataValidations count="21">
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.USR2ORG_'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation sqref="E4:E5 F4:F5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.USR2ORG_'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation sqref="G4:G5 I4:I5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="L4:L5 N4:N5 P4:P5 R4:R5 T4:T5 V4:V5 X4:X5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.USR2ORG_'!$B$1:$B$5</formula1>
     </dataValidation>
-    <dataValidation sqref="H4:H5 J4:J5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="M4:M5 O4:O5 Q4:Q5 S4:S5 U4:U5 W4:W5 Y4:Y5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.USR2ORG_'!$C$1:$C$3</formula1>
     </dataValidation>
-    <dataValidation sqref="G4:G5 I4:I5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="L4:L5 N4:N5 P4:P5 R4:R5 T4:T5 V4:V5 X4:X5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.USR2ORG_'!$B$1:$B$5</formula1>
     </dataValidation>
-    <dataValidation sqref="H4:H5 J4:J5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="M4:M5 O4:O5 Q4:Q5 S4:S5 U4:U5 W4:W5 Y4:Y5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$C$1:$C$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="L4:L5 N4:N5 P4:P5 R4:R5 T4:T5 V4:V5 X4:X5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 O4:O5 Q4:Q5 S4:S5 U4:U5 W4:W5 Y4:Y5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$C$1:$C$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="L4:L5 N4:N5 P4:P5 R4:R5 T4:T5 V4:V5 X4:X5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 O4:O5 Q4:Q5 S4:S5 U4:U5 W4:W5 Y4:Y5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$C$1:$C$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="L4:L5 N4:N5 P4:P5 R4:R5 T4:T5 V4:V5 X4:X5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 O4:O5 Q4:Q5 S4:S5 U4:U5 W4:W5 Y4:Y5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$C$1:$C$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="L4:L5 N4:N5 P4:P5 R4:R5 T4:T5 V4:V5 X4:X5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 O4:O5 Q4:Q5 S4:S5 U4:U5 W4:W5 Y4:Y5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$C$1:$C$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="L4:L5 N4:N5 P4:P5 R4:R5 T4:T5 V4:V5 X4:X5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.USR2ORG_'!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 O4:O5 Q4:Q5 S4:S5 U4:U5 W4:W5 Y4:Y5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.USR2ORG_'!$C$1:$C$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -76810,7 +77005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -76828,9 +77023,19 @@
     <col width="14.85" customWidth="1" min="5" max="5"/>
     <col width="14.85" customWidth="1" min="6" max="6"/>
     <col width="21.6" customWidth="1" min="7" max="7"/>
-    <col width="31.05" customWidth="1" min="8" max="8"/>
-    <col width="24.3" customWidth="1" min="9" max="9"/>
-    <col width="24.3" customWidth="1" min="10" max="10"/>
+    <col width="22.95" customWidth="1" min="8" max="8"/>
+    <col width="22.95" customWidth="1" min="9" max="9"/>
+    <col width="22.95" customWidth="1" min="10" max="10"/>
+    <col width="22.95" customWidth="1" min="11" max="11"/>
+    <col width="22.95" customWidth="1" min="12" max="12"/>
+    <col width="32.40000000000001" customWidth="1" min="13" max="13"/>
+    <col width="32.40000000000001" customWidth="1" min="14" max="14"/>
+    <col width="31.05" customWidth="1" min="15" max="15"/>
+    <col width="32.40000000000001" customWidth="1" min="16" max="16"/>
+    <col width="32.40000000000001" customWidth="1" min="17" max="17"/>
+    <col width="24.3" customWidth="1" min="18" max="18"/>
+    <col width="32.40000000000001" customWidth="1" min="19" max="19"/>
+    <col width="24.3" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
@@ -76846,7 +77051,17 @@
       <c r="G1" s="8" t="n"/>
       <c r="H1" s="8" t="n"/>
       <c r="I1" s="8" t="n"/>
-      <c r="J1" s="9" t="n"/>
+      <c r="J1" s="8" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="8" t="n"/>
+      <c r="O1" s="8" t="n"/>
+      <c r="P1" s="8" t="n"/>
+      <c r="Q1" s="8" t="n"/>
+      <c r="R1" s="8" t="n"/>
+      <c r="S1" s="8" t="n"/>
+      <c r="T1" s="9" t="n"/>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="10" t="inlineStr">
@@ -76863,14 +77078,24 @@
         </is>
       </c>
       <c r="F2" s="8" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="12" t="inlineStr">
+      <c r="G2" s="8" t="n"/>
+      <c r="H2" s="8" t="n"/>
+      <c r="I2" s="8" t="n"/>
+      <c r="J2" s="8" t="n"/>
+      <c r="K2" s="8" t="n"/>
+      <c r="L2" s="9" t="n"/>
+      <c r="M2" s="12" t="inlineStr">
         <is>
           <t>ATTRIBUTES</t>
         </is>
       </c>
-      <c r="I2" s="8" t="n"/>
-      <c r="J2" s="9" t="n"/>
+      <c r="N2" s="8" t="n"/>
+      <c r="O2" s="8" t="n"/>
+      <c r="P2" s="8" t="n"/>
+      <c r="Q2" s="8" t="n"/>
+      <c r="R2" s="8" t="n"/>
+      <c r="S2" s="8" t="n"/>
+      <c r="T2" s="9" t="n"/>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="10" t="inlineStr">
@@ -76908,17 +77133,67 @@
           <t>IFDAT_RPRTR_OF</t>
         </is>
       </c>
-      <c r="H3" s="13" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
+        <is>
+          <t>BSIDAT_RPRTR_OF</t>
+        </is>
+      </c>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t>MIRDAT_RPRTR_OF</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>AUXDAT_RPRTR_OF</t>
+        </is>
+      </c>
+      <c r="K3" s="7" t="inlineStr">
+        <is>
+          <t>INSDAT_RPRTR_OF</t>
+        </is>
+      </c>
+      <c r="L3" s="7" t="inlineStr">
+        <is>
+          <t>PENDAT_RPRTR_OF</t>
+        </is>
+      </c>
+      <c r="M3" s="13" t="inlineStr">
+        <is>
+          <t>AUXDAT_RPRTR_OF.STATUS</t>
+        </is>
+      </c>
+      <c r="N3" s="13" t="inlineStr">
+        <is>
+          <t>BSIDAT_RPRTR_OF.STATUS</t>
+        </is>
+      </c>
+      <c r="O3" s="13" t="inlineStr">
         <is>
           <t>IFDAT_RPRTR_OF.STATUS</t>
         </is>
       </c>
-      <c r="I3" s="13" t="inlineStr">
+      <c r="P3" s="13" t="inlineStr">
+        <is>
+          <t>INSDAT_RPRTR_OF.STATUS</t>
+        </is>
+      </c>
+      <c r="Q3" s="13" t="inlineStr">
+        <is>
+          <t>MIRDAT_RPRTR_OF.STATUS</t>
+        </is>
+      </c>
+      <c r="R3" s="13" t="inlineStr">
         <is>
           <t>MNGMNT_OF.STATUS</t>
         </is>
       </c>
-      <c r="J3" s="13" t="inlineStr">
+      <c r="S3" s="13" t="inlineStr">
+        <is>
+          <t>PENDAT_RPRTR_OF.STATUS</t>
+        </is>
+      </c>
+      <c r="T3" s="13" t="inlineStr">
         <is>
           <t>UMBRLL_OF.STATUS</t>
         </is>
@@ -76932,9 +77207,19 @@
       <c r="E4" s="16" t="n"/>
       <c r="F4" s="16" t="n"/>
       <c r="G4" s="16" t="n"/>
-      <c r="H4" s="17" t="n"/>
-      <c r="I4" s="17" t="n"/>
-      <c r="J4" s="17" t="n"/>
+      <c r="H4" s="16" t="n"/>
+      <c r="I4" s="16" t="n"/>
+      <c r="J4" s="16" t="n"/>
+      <c r="K4" s="16" t="n"/>
+      <c r="L4" s="16" t="n"/>
+      <c r="M4" s="17" t="n"/>
+      <c r="N4" s="17" t="n"/>
+      <c r="O4" s="17" t="n"/>
+      <c r="P4" s="17" t="n"/>
+      <c r="Q4" s="17" t="n"/>
+      <c r="R4" s="17" t="n"/>
+      <c r="S4" s="17" t="n"/>
+      <c r="T4" s="17" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="14" t="n"/>
@@ -76944,35 +77229,75 @@
       <c r="E5" s="16" t="n"/>
       <c r="F5" s="16" t="n"/>
       <c r="G5" s="16" t="n"/>
-      <c r="H5" s="17" t="n"/>
-      <c r="I5" s="17" t="n"/>
-      <c r="J5" s="17" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="16" t="n"/>
+      <c r="J5" s="16" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="16" t="n"/>
+      <c r="M5" s="17" t="n"/>
+      <c r="N5" s="17" t="n"/>
+      <c r="O5" s="17" t="n"/>
+      <c r="P5" s="17" t="n"/>
+      <c r="Q5" s="17" t="n"/>
+      <c r="R5" s="17" t="n"/>
+      <c r="S5" s="17" t="n"/>
+      <c r="T5" s="17" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="E1:T1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="E2:L2"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="H2:J2"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation sqref="E4:E5 F4:F5 G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+  <dataValidations count="16">
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5 L4:L5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.ORG2ORG_'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation sqref="E4:E5 F4:F5 G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5 L4:L5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.ORG2ORG_'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation sqref="E4:E5 F4:F5 G4:G5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5 L4:L5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.ORG2ORG_'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation sqref="H4:H5 I4:I5 J4:J5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5 L4:L5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.ORG2ORG_'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5 L4:L5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.ORG2ORG_'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5 L4:L5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.ORG2ORG_'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5 L4:L5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.ORG2ORG_'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4:E5 F4:F5 G4:G5 H4:H5 I4:I5 J4:J5 K4:K5 L4:L5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.ORG2ORG_'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 N4:N5 O4:O5 P4:P5 Q4:Q5 R4:R5 S4:S5 T4:T5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.ORG2ORG_'!$B$1:$B$5</formula1>
     </dataValidation>
-    <dataValidation sqref="H4:H5 I4:I5 J4:J5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="M4:M5 N4:N5 O4:O5 P4:P5 Q4:Q5 R4:R5 S4:S5 T4:T5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.ORG2ORG_'!$B$1:$B$5</formula1>
     </dataValidation>
-    <dataValidation sqref="H4:H5 I4:I5 J4:J5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="M4:M5 N4:N5 O4:O5 P4:P5 Q4:Q5 R4:R5 S4:S5 T4:T5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.ORG2ORG_'!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 N4:N5 O4:O5 P4:P5 Q4:Q5 R4:R5 S4:S5 T4:T5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.ORG2ORG_'!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 N4:N5 O4:O5 P4:P5 Q4:Q5 R4:R5 S4:S5 T4:T5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.ORG2ORG_'!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 N4:N5 O4:O5 P4:P5 Q4:Q5 R4:R5 S4:S5 T4:T5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.ORG2ORG_'!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 N4:N5 O4:O5 P4:P5 Q4:Q5 R4:R5 S4:S5 T4:T5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>'REF.ORG2ORG_'!$B$1:$B$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="M4:M5 N4:N5 O4:O5 P4:P5 Q4:Q5 R4:R5 S4:S5 T4:T5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>'REF.ORG2ORG_'!$B$1:$B$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/source/_static/structure/DBDAT_TEMPLATE.xlsx
+++ b/docs/source/_static/structure/DBDAT_TEMPLATE.xlsx
@@ -13497,7 +13497,7 @@
       <c r="J4" s="19" t="n"/>
       <c r="K4" s="19" t="n"/>
       <c r="L4" s="16" t="n"/>
-      <c r="M4" s="19" t="n"/>
+      <c r="M4" s="15" t="n"/>
       <c r="N4" s="16" t="n"/>
       <c r="O4" s="16" t="n"/>
       <c r="P4" s="16" t="n"/>
@@ -13562,7 +13562,7 @@
       <c r="J5" s="19" t="n"/>
       <c r="K5" s="19" t="n"/>
       <c r="L5" s="16" t="n"/>
-      <c r="M5" s="19" t="n"/>
+      <c r="M5" s="15" t="n"/>
       <c r="N5" s="16" t="n"/>
       <c r="O5" s="16" t="n"/>
       <c r="P5" s="16" t="n"/>
@@ -77026,15 +77026,15 @@
     <col width="22.95" customWidth="1" min="8" max="8"/>
     <col width="22.95" customWidth="1" min="9" max="9"/>
     <col width="22.95" customWidth="1" min="10" max="10"/>
-    <col width="22.95" customWidth="1" min="11" max="11"/>
-    <col width="22.95" customWidth="1" min="12" max="12"/>
+    <col width="21.6" customWidth="1" min="11" max="11"/>
+    <col width="21.6" customWidth="1" min="12" max="12"/>
     <col width="32.40000000000001" customWidth="1" min="13" max="13"/>
     <col width="32.40000000000001" customWidth="1" min="14" max="14"/>
     <col width="31.05" customWidth="1" min="15" max="15"/>
-    <col width="32.40000000000001" customWidth="1" min="16" max="16"/>
+    <col width="31.05" customWidth="1" min="16" max="16"/>
     <col width="32.40000000000001" customWidth="1" min="17" max="17"/>
     <col width="24.3" customWidth="1" min="18" max="18"/>
-    <col width="32.40000000000001" customWidth="1" min="19" max="19"/>
+    <col width="31.05" customWidth="1" min="19" max="19"/>
     <col width="24.3" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
@@ -77150,12 +77150,12 @@
       </c>
       <c r="K3" s="7" t="inlineStr">
         <is>
-          <t>INSDAT_RPRTR_OF</t>
+          <t>ICDAT_RPRTR_OF</t>
         </is>
       </c>
       <c r="L3" s="7" t="inlineStr">
         <is>
-          <t>PENDAT_RPRTR_OF</t>
+          <t>PFDAT_RPRTR_OF</t>
         </is>
       </c>
       <c r="M3" s="13" t="inlineStr">
@@ -77170,14 +77170,14 @@
       </c>
       <c r="O3" s="13" t="inlineStr">
         <is>
+          <t>ICDAT_RPRTR_OF.STATUS</t>
+        </is>
+      </c>
+      <c r="P3" s="13" t="inlineStr">
+        <is>
           <t>IFDAT_RPRTR_OF.STATUS</t>
         </is>
       </c>
-      <c r="P3" s="13" t="inlineStr">
-        <is>
-          <t>INSDAT_RPRTR_OF.STATUS</t>
-        </is>
-      </c>
       <c r="Q3" s="13" t="inlineStr">
         <is>
           <t>MIRDAT_RPRTR_OF.STATUS</t>
@@ -77190,7 +77190,7 @@
       </c>
       <c r="S3" s="13" t="inlineStr">
         <is>
-          <t>PENDAT_RPRTR_OF.STATUS</t>
+          <t>PFDAT_RPRTR_OF.STATUS</t>
         </is>
       </c>
       <c r="T3" s="13" t="inlineStr">
@@ -83434,12 +83434,12 @@
       </c>
       <c r="I3" s="7" t="inlineStr">
         <is>
+          <t>CTY</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
           <t>CTY_LTN</t>
-        </is>
-      </c>
-      <c r="J3" s="7" t="inlineStr">
-        <is>
-          <t>CTY</t>
         </is>
       </c>
       <c r="K3" s="7" t="inlineStr">
